--- a/medicine/Enfance/Benoît_Séverac/Benoît_Séverac.xlsx
+++ b/medicine/Enfance/Benoît_Séverac/Benoît_Séverac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beno%C3%AEt_S%C3%A9verac</t>
+          <t>Benoît_Séverac</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Benoît Séverac est un écrivain  français, romancier et nouvelliste. Il est auteur de littératures noire et policière, adulte et jeunesse. Il vit à Toulouse qu’il utilise souvent comme toile de fond pour ses fictions. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beno%C3%AEt_S%C3%A9verac</t>
+          <t>Benoît_Séverac</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Benoît Séverac a longtemps enseigné l’anglais à l’École nationale vétérinaire de Toulouse ainsi qu’aux étudiants du Diplôme national d’œnologie de Toulouse[réf. souhaitée]. 
-Il est dégustateur agréé par le Comité interprofessionnel des Vins d’Alsace, ex-Internal Assessor du Wine and Spirit Education Trust de Londres et membre du jury de dégustation Aval Qualité du Comité Interprofessionnel des Vins du Sud-Ouest[1][source insuffisante].
+Il est dégustateur agréé par le Comité interprofessionnel des Vins d’Alsace, ex-Internal Assessor du Wine and Spirit Education Trust de Londres et membre du jury de dégustation Aval Qualité du Comité Interprofessionnel des Vins du Sud-Ouest[source insuffisante].
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beno%C3%AEt_S%C3%A9verac</t>
+          <t>Benoît_Séverac</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,16 +559,21 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans pour adultes
-Le Tableau du peintre juif (Éditions La Manufacture de livres, 2022) (Éditions 10/18, 2023)
+          <t>Romans pour adultes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Tableau du peintre juif (Éditions La Manufacture de livres, 2022) (Éditions 10/18, 2023)
 :Prix des lecteurs de Cherbourg-en-Cotentin, 2023[réf. nécessaire]
 Skiatook lake (Éditions Le Passage, 2021). Roman coécrit avec Hervé Jubert
 Tuer le fils (Éditions La Manufacture de livres, 2020), (Éditions Pocket, 2021)
-:Prix Crime de l'année du lycée Jean Bart de Dunkerque, 2021[réf. nécessaire] Prix Cézam Nouvelle Aquitaine, 2021[2]
-Prix Polar du livre pyrénéen (Saint-Lary-Soulan) – 2021[3]
-Sélection officielle Prix Polar en Série de Quais du Polar, 2022 Sélection officielle Prix Quais du Polar – 20 minutes, 2021[4]
-Sélection officielle Prix Polar Mauves-en-Noir, 2021[5]
-Sélection officielle Prix Robin Cook (Millau), 2021[6]
+:Prix Crime de l'année du lycée Jean Bart de Dunkerque, 2021[réf. nécessaire] Prix Cézam Nouvelle Aquitaine, 2021
+Prix Polar du livre pyrénéen (Saint-Lary-Soulan) – 2021
+Sélection officielle Prix Polar en Série de Quais du Polar, 2022 Sélection officielle Prix Quais du Polar – 20 minutes, 2021
+Sélection officielle Prix Polar Mauves-en-Noir, 2021
+Sélection officielle Prix Robin Cook (Millau), 2021
 :Sélection Prix des Ancres Noires de la ville du Havre, 2022[réf. nécessaire]
 Wazhazhe (Éditions Le Passage, 2018). Roman coécrit avec Hervé Jubert
 :Prix des lecteurs des médiathèques de l'hôpital Tenon à Paris, 2019[réf. nécessaire]
@@ -578,9 +597,43 @@
 Prix du salon du livre de la ville de Saint-Lys, 2008
 Prix Calibre 47 du salon Polar'Encontre, 2009
 [réf. nécessaire]
-Traduit en anglais (É.-U.) sous le titre de Pax Romana (Enigma Books Editors, 2010)
-Romans jeunesse
-Les Sœurs Lakotas (Éditions Syros, 2023)
+Traduit en anglais (É.-U.) sous le titre de Pax Romana (Enigma Books Editors, 2010)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Benoît_Séverac</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beno%C3%AEt_S%C3%A9verac</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Sœurs Lakotas (Éditions Syros, 2023)
 : Prix Summer des collégiens de La Fête du livre de Bron, 2024 
 Prix Le Petit Georges des collégiens de Pithiviers, 2024
 [réf. nécessaire]
@@ -620,9 +673,43 @@
 Prix 2014 Enlivrez-vous en mai des collèges et lycées de Thionville (Moselle) et du lycée Français de Luxembourg
 Prix E-polar, des lycéens de Saint-Brieuc et Lamballe (Côtes-d'Armor), 2014
 Prix Hafed Benotman 2015 du roman Ado, festival Nuits Noires d'Aubusson (Creuse)
-[réf. nécessaire]
-Principales nouvelles
-Crânes d’Ovalie in Toulouse Noir, éditions Asphalte, 2024
+[réf. nécessaire]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Benoît_Séverac</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beno%C3%AEt_S%C3%A9verac</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Principales nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Crânes d’Ovalie in Toulouse Noir, éditions Asphalte, 2024
 Ondes algériennes Éd. La Manufacture de livres, 2023 ; première édition in Revue Gibraltar, un pont entre deux mondes n°5, décembre 2016
 L’Allée des indigents in Bologna, au-delà des frontières, Zorba éditions, 2024
 Donnant-donnant - Revue Gibraltar, un pont entre deux mondes n°11, novembre 2022
@@ -636,9 +723,43 @@
 Des caravanes sous la mer, Revue Gibraltar, un pont entre deux mondes no 1, décembre 2012.
 Le Gang des Pyrales, Éditions Loubatières Nouvelles dans le cadre du festival La Novela 2012, organisé par la mairie de Toulouse.
 Une heure à tuer, Revue culturelle Les cahiers d'Adèle no 4, novembre 2009
-Le Canal aux Trousses, Éditions Gelbart, Le Canal du Midi, 2007, collection patronnée par l'UNESCO
-Production audio-visuelle et autres
-Caravane - Court métrage réalisé par Xavier Franchomme, coécriture du scénario, 2016[7]. Production soutenue par la région Midi-Pyrénées
+Le Canal aux Trousses, Éditions Gelbart, Le Canal du Midi, 2007, collection patronnée par l'UNESCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Benoît_Séverac</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beno%C3%AEt_S%C3%A9verac</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Production audio-visuelle et autres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Caravane - Court métrage réalisé par Xavier Franchomme, coécriture du scénario, 2016. Production soutenue par la région Midi-Pyrénées
 Une peur bleue - Nouvelle illustrée par la calligraphe contemporaine Françoise Michaud, exposition dans le cadre du festival Toulouse Polars du Sud, 2015.
 Textographies - Collaboration hebdomadaire avec le photographe Jules Séverac au Tumblr « Textographies », depuis mars 2015.
 Territoires Polars (collection France 3 - INA, 2013) - Tournage de trois films documentaires (52 min), réalisés par Jean-Pierre Vedel. Benoît Séverac a participé en tant que personnage-fil rouge du film et auteur des voix-offs. Régions concernées : Midi-Pyrénées, Normandie et Corse.
